--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3665062.285431516</v>
+        <v>3662810.205720309</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7639647.645709573</v>
+        <v>7639647.645709572</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.2402584038925</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826015</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.17933574607689</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>279.3751023006566</v>
+        <v>122.2882635917076</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>161.6217979858625</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727785</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606658</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>168.5177247035053</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.15794421524275</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.98153210089519</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877912</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.638712032431</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.638712032431</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032431</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4401,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>477.4688890257551</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>308.5327060978482</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>308.5327060978482</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>308.5327060978482</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>161.6427585999378</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>659.1173538559948</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559525</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559525</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1514.348043559525</v>
+        <v>654.0504646744041</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.740577577775</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>998.4862361779143</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y7" t="n">
-        <v>777.6936570343842</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4811,10 +4811,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4884,37 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085552</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>434.0237757962194</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>286.1106822138263</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>139.2207347159159</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>362.8175152271513</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,16 +5027,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
@@ -5045,43 +5045,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,28 +5276,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,10 +6713,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7078,13 +7078,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,16 +7187,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779005</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181818</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181818</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.86414683039</v>
+      </c>
+      <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="H4" t="n">
-        <v>12996.86414683045</v>
-      </c>
       <c r="I4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,13 +26445,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.9038360987</v>
+        <v>-748872.9038360984</v>
       </c>
       <c r="C6" t="n">
-        <v>579871.8418914939</v>
+        <v>579871.8418914934</v>
       </c>
       <c r="D6" t="n">
-        <v>579871.8418914939</v>
+        <v>579871.8418914934</v>
       </c>
       <c r="E6" t="n">
-        <v>327257.4139274131</v>
+        <v>327222.6760019769</v>
       </c>
       <c r="F6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="G6" t="n">
-        <v>652669.8757347682</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="H6" t="n">
-        <v>652669.8757347687</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="I6" t="n">
-        <v>652669.8757347681</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="J6" t="n">
-        <v>435138.6733374909</v>
+        <v>435103.9354120553</v>
       </c>
       <c r="K6" t="n">
-        <v>652669.8757347686</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="L6" t="n">
-        <v>652669.8757347685</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="M6" t="n">
-        <v>567614.8477992563</v>
+        <v>567580.109873821</v>
       </c>
       <c r="N6" t="n">
-        <v>652669.8757347681</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="O6" t="n">
-        <v>652669.8757347686</v>
+        <v>652635.1378093325</v>
       </c>
       <c r="P6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093327</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.44278321679047</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.549601273452</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295134</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>102.5552677716051</v>
+        <v>259.6421064805542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>64.08785740317467</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548169</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>201.2133759749637</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833851</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.04427615813303</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,16 +32315,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
